--- a/Documents/数据库设计.xlsx
+++ b/Documents/数据库设计.xlsx
@@ -16,9 +16,271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="188">
   <si>
     <t>CHANNEL_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_CODE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_TYPE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_CODE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>营服代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_COUNT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>营服名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_YEAR</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT_AMOUNT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_LEVEL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道等级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_MONTH</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_DESC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_COUNT_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_STATUS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT_TOTAL_AMOUNT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_ID_OLD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_YEAR</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_ID_NEW</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_MONTH</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_LEVEL_OLD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_DATE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_LEVEL_NEW</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATOR_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_DATE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_CONTENT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTIONARY_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>CHANNEL_LEVEL_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTIONARY_TABLE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PASSWORD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_TYPE_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTIONARY_KEY</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PHONE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT_BASE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTIONARY_VALUE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_EMAIL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT_RATIO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATETIME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_AREA_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_GUID</t>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN_YEAR</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -26,107 +288,59 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DEV_ID</t>
+    <t>加入系统年</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CHANNEL_CODE</t>
+    <t>JOIN_MONTH</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
+    <t>加入系统月</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>渠道代码</t>
+    <t>BUILD_YEAR</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CHANNEL_NAME</t>
+    <t>渠道建立年</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(100)</t>
+    <t>BUILD_MONTH</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>渠道名称</t>
+    <t>渠道建立月</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DEV_TYPE</t>
+    <t>渠道ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AREA_CODE</t>
+    <t>渠道GUID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
+    <t>发展数ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>营服代码</t>
+    <t>发展类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DEV_COUNT</t>
+    <t>发展数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AREA_NAME</t>
+    <t>发展年</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>营服名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV_YEAR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT_AMOUNT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_LEVEL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV_MONTH</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLAG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_DESC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(1000)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV_COUNT_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_STATUS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
+    <t>发展月</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -134,536 +348,322 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPGRADE_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT_TOTAL_AMOUNT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPORT_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST_UPDATE_DATE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_ID_OLD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPORT_YEAR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_ID_NEW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPORT_MONTH</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_LEVEL_OLD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPORT_DATE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_LEVEL_NEW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPERATOR_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPGRADE_DATE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPORT_CONTENT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMAGE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTIONARY_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>CHANNEL_LEVEL_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTIONARY_TABLE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_PASSWORD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV_TYPE_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTIONARY_KEY</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_PHONE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT_BASE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTIONARY_VALUE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_EMAIL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT_RATIO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATETIME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_TYPE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_AREA_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>CONTRACT_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_COUNT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_YEAR</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_MONTH</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_COUNT_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_CREDIT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_CREDIT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR_BONUS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CHANNEL_GUID</t>
-  </si>
-  <si>
-    <t>GUID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOIN_YEAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入系统年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOIN_MONTH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入系统月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUILD_YEAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道建立年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUILD_MONTH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道建立月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道GUID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展数ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标志位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT_COUNT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT_YEAR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT_MONTH</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT_COUNT_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约年</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>积分</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DEV_CREDIT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT_CREDIT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>YEAR_BONUS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_GUID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>渠道ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>总积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最后更新日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>标志位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>渠道GUID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发展数积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>签约放号积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>年限加分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DATA_TYPE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>导入ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>导入年</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>导入月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>导入时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>操作人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>导入内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>导入类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>邮件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户区县对照ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>区县代码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>积分配置ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>渠道商等级ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发展类型ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>系数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL(18, 2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字典ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字典表名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字典关键字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字典值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>升降级ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>渠道代码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>旧渠道ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>新渠道ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>旧渠道等级ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>新渠道等级ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>升降级时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_USER_AREA
 用户区县对照表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_USER
 用户表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_CHANNEL_IMPORT
 导入历史表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_CREDIT_TOTAL
 积分表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_CONTRACT
 签约放号表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_DEVELOPMENT
 发展数表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_CHANNEL
 渠道商表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_CREDIT_CONFIG
 积分配置表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_DICTIONARY
 系统字典表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_CHANNEL_UPGRADE
 渠道商升降级历史表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -680,7 +680,7 @@
       </rPr>
       <t>NT</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -697,7 +697,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -714,11 +714,11 @@
       </rPr>
       <t>NT</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>兑换积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,7 +735,7 @@
       </rPr>
       <t>NT</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -752,28 +752,28 @@
       </rPr>
       <t>ATE</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>兑换时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>兑换人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>审批人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>审批时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CM_CREDIT_EXCHANGE
 积分兑换表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -790,11 +790,11 @@
       </rPr>
       <t>XCHANGE_ID</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CHANNEL_GUID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -811,7 +811,7 @@
       </rPr>
       <t>XCHANGE_CREDIT</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -828,7 +828,7 @@
       </rPr>
       <t>TATUS</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -845,7 +845,7 @@
       </rPr>
       <t>XCHANGE_DATETIME</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -862,11 +862,11 @@
       </rPr>
       <t>XCHANGE_USER</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>APPROVAL_DATETIME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -883,7 +883,7 @@
       </rPr>
       <t>PPROVAL_USER</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -900,7 +900,7 @@
       </rPr>
       <t>LAG</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EXCHANGED_CREDIT</t>
@@ -920,30 +920,73 @@
       </rPr>
       <t>NT</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>已兑换积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>REMAINING_TOTAL_AMOUNT</t>
   </si>
   <si>
     <t>当前总积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_NAME</t>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR(10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1203,67 +1246,67 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1272,19 +1315,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1293,8 +1339,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1602,11 +1648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L158"/>
+  <dimension ref="B1:L159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1693,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1668,7 +1714,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1687,7 +1733,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1706,7 +1752,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1771,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1790,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +1809,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1782,7 +1828,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1847,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1866,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1839,7 +1885,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
@@ -1860,7 +1906,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="6" t="s">
         <v>66</v>
       </c>
@@ -1879,7 +1925,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="6" t="s">
         <v>69</v>
       </c>
@@ -1898,7 +1944,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
@@ -1917,7 +1963,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="22"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="6" t="s">
         <v>73</v>
       </c>
@@ -2301,7 +2347,7 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -2320,7 +2366,7 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="26"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="6" t="s">
         <v>32</v>
       </c>
@@ -2337,7 +2383,7 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="26"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="6" t="s">
         <v>34</v>
       </c>
@@ -2354,7 +2400,7 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="26"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="6" t="s">
         <v>21</v>
       </c>
@@ -2368,7 +2414,7 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="26"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="6" t="s">
         <v>64</v>
       </c>
@@ -2384,7 +2430,7 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="26"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="6" t="s">
         <v>94</v>
       </c>
@@ -2398,7 +2444,7 @@
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="26"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="6" t="s">
         <v>95</v>
       </c>
@@ -2412,7 +2458,7 @@
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="26"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="6" t="s">
         <v>96</v>
       </c>
@@ -2426,38 +2472,38 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B50" s="26"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="16" t="s">
         <v>182</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B51" s="27"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="16" t="s">
         <v>184</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="28"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="12"/>
       <c r="G52" s="9"/>
     </row>
@@ -2795,9 +2841,15 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>187</v>
+      </c>
       <c r="F78" s="12"/>
       <c r="G78" s="9"/>
     </row>
@@ -2810,47 +2862,41 @@
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B81" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="D81" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F81" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B81" s="19"/>
-      <c r="C81" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F81" s="12"/>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B82" s="19"/>
       <c r="C82" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="9"/>
@@ -2858,13 +2904,13 @@
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="19"/>
       <c r="C83" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="9"/>
@@ -2872,36 +2918,42 @@
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="19"/>
       <c r="C84" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="20"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F86" s="12"/>
       <c r="G86" s="9"/>
     </row>
@@ -2914,47 +2966,41 @@
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B89" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="D89" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F89" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B89" s="19"/>
-      <c r="C89" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F89" s="12"/>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="19"/>
       <c r="C90" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="9"/>
@@ -2962,36 +3008,42 @@
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B91" s="19"/>
       <c r="C91" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="9"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B92" s="20"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="6" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="9"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F93" s="12"/>
       <c r="G93" s="9"/>
     </row>
@@ -3004,47 +3056,41 @@
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B96" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="D96" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F96" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B96" s="19"/>
-      <c r="C96" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F96" s="12"/>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B97" s="19"/>
       <c r="C97" s="6" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="9"/>
@@ -3052,13 +3098,13 @@
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B98" s="19"/>
       <c r="C98" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="9"/>
@@ -3066,13 +3112,13 @@
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B99" s="19"/>
       <c r="C99" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="9"/>
@@ -3080,13 +3126,13 @@
     <row r="100" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B100" s="19"/>
       <c r="C100" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="9"/>
@@ -3094,13 +3140,13 @@
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="19"/>
       <c r="C101" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="9"/>
@@ -3108,36 +3154,42 @@
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="19"/>
       <c r="C102" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="9"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="20"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="9"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B104" s="5"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F104" s="12"/>
       <c r="G104" s="9"/>
     </row>
@@ -3149,141 +3201,141 @@
       <c r="F105" s="12"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="23" t="s">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C107" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D107" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E107" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B107" s="16"/>
-      <c r="C107" s="24" t="s">
+      <c r="F107" s="15"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B108" s="27"/>
+      <c r="C108" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F108" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B108" s="16"/>
-      <c r="C108" s="24" t="s">
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B109" s="27"/>
+      <c r="C109" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D109" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E109" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="16"/>
-      <c r="C109" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="9"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B110" s="16"/>
-      <c r="C110" s="24" t="s">
-        <v>175</v>
+      <c r="B110" s="27"/>
+      <c r="C110" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="9"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B111" s="16"/>
-      <c r="C111" s="24" t="s">
-        <v>176</v>
+      <c r="B111" s="27"/>
+      <c r="C111" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="9"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B112" s="16"/>
-      <c r="C112" s="24" t="s">
-        <v>177</v>
+      <c r="B112" s="27"/>
+      <c r="C112" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="9"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B113" s="16"/>
-      <c r="C113" s="24" t="s">
-        <v>178</v>
+      <c r="B113" s="27"/>
+      <c r="C113" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="9"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B114" s="17"/>
-      <c r="C114" s="24" t="s">
-        <v>179</v>
+      <c r="B114" s="27"/>
+      <c r="C114" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>164</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="9"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="5"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F115" s="12"/>
       <c r="G115" s="9"/>
     </row>
@@ -3615,30 +3667,38 @@
       <c r="F156" s="12"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="7"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="10"/>
-    </row>
-    <row r="158" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B157" s="5"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="7"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B107:B115"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B96:B104"/>
     <mergeCell ref="B64:B71"/>
     <mergeCell ref="B42:B51"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B54:B61"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B95:B103"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -3652,7 +3712,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3665,7 +3725,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>